--- a/Unverified multiformat sources/Imports_1737_Nantes Hasna à faire corriger.xlsx
+++ b/Unverified multiformat sources/Imports_1737_Nantes Hasna à faire corriger.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Documents/Recherche/Commerce International Français XVIIIe.xls/Balance du commerce/Retranscriptions_Commerce_France/toflit18_data_GIT/Unverified multiformat sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55D487D-2811-9344-8AF2-C4418058AA65}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409CDF6E-BF4A-3D44-BC28-D9F02C00DFAE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22500" windowHeight="10860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entrées" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" iterateDelta="1E-4"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -2087,9 +2087,9 @@
   </sheetPr>
   <dimension ref="A1:AMJ477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N458" sqref="N458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -34581,13 +34581,14 @@
         <v>38</v>
       </c>
       <c r="N458" s="27">
-        <v>60</v>
+        <f>60/124</f>
+        <v>0.4838709677419355</v>
       </c>
       <c r="O458" s="27"/>
       <c r="P458" s="28"/>
       <c r="Q458" s="29">
         <f t="shared" si="40"/>
-        <v>60</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="R458" s="28">
         <v>242760</v>
@@ -34600,11 +34601,11 @@
       </c>
       <c r="V458" s="32">
         <f t="shared" si="41"/>
-        <v>30105000</v>
+        <v>242782.25806451615</v>
       </c>
       <c r="W458" s="33">
         <f t="shared" si="43"/>
-        <v>-29862240</v>
+        <v>-22.258064516150625</v>
       </c>
       <c r="X458" s="22" t="s">
         <v>429</v>
